--- a/resources/ai4good course supplementary reading.xlsx
+++ b/resources/ai4good course supplementary reading.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28521"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C2DC74B-759C-4085-9A71-6137CB821EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4988472F-5544-4370-9629-E621C8D303F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supplementary resources" sheetId="1" r:id="rId1"/>
@@ -150,28 +150,6 @@
 ¶https://arxiv.org/abs/2412.00050</t>
   </si>
   <si>
-    <t>Poverty prediction (with foundation models)</t>
-  </si>
-  <si>
-    <t>Embeddings</t>
-  </si>
-  <si>
-    <t>¶ read the overview of this report on current status of poverty https://www.worldbank.org/en/publication/poverty-prosperity-and-planet
-¶ read this explainer on foundation models in general https://www.adalovelaceinstitute.org/resource/foundation-models-explainer/
-¶ read the overview of this report: https://www.worldbank.org/en/publication/poverty-prosperity-and-planet
-¶ watch 4mins  between 13.-17mins of this general person preview of clay's model here https://www.youtube.com/watch?v=gFjbrGaAL6w
-¶ watch 5mins between  13- 17.43 mins of this interview on SatCLIP and it's downstream uses https://www.youtube.com/watch?v=m0sMchJfDd4 
-¶ check out the mosaik website...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some cool applications of poverty mapping:
-¶10.1038/s41586-022-05322-8
-¶https://www.nature.com/articles/s41586-022-04484-9
-Also see this list of remote sensing foundation models: 
-¶https://github.com/Jack-bo1220/Awesome-Remote-Sensing-Foundation-Models, 
-¶One example from CU prof here; https://www.nature.com/articles/s41467-021-24638-z also see https://www.mosaiks.org/how-mosaiks-works </t>
-  </si>
-  <si>
     <t>Climate search engine (with AE)</t>
   </si>
   <si>
@@ -197,6 +175,28 @@
 ¶https://www.science.org/doi/10.1126/science.adi2336
 ¶ https://www.nature.com/articles/s41586-024-07145-1
 </t>
+  </si>
+  <si>
+    <t>Poverty prediction (with foundation models)</t>
+  </si>
+  <si>
+    <t>Embeddings</t>
+  </si>
+  <si>
+    <t>¶ read the overview of this report on current status of poverty https://www.worldbank.org/en/publication/poverty-prosperity-and-planet
+¶ read this explainer on foundation models in general https://www.adalovelaceinstitute.org/resource/foundation-models-explainer/
+¶ read the overview of this report: https://www.worldbank.org/en/publication/poverty-prosperity-and-planet
+¶ watch 4mins  between 13.-17mins of this general person preview of clay's model here https://www.youtube.com/watch?v=gFjbrGaAL6w
+¶ watch 5mins between  13- 17.43 mins of this interview on SatCLIP and it's downstream uses https://www.youtube.com/watch?v=m0sMchJfDd4 
+¶ check out the mosaik website...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some cool applications of poverty mapping:
+¶10.1038/s41586-022-05322-8
+¶https://www.nature.com/articles/s41586-022-04484-9
+Also see this list of remote sensing foundation models: 
+¶https://github.com/Jack-bo1220/Awesome-Remote-Sensing-Foundation-Models, 
+¶One example from CU prof here; https://www.nature.com/articles/s41467-021-24638-z also see https://www.mosaiks.org/how-mosaiks-works </t>
   </si>
   <si>
     <t>Crop yields (with GBMs)</t>
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="120.75" customHeight="1"/>
@@ -1124,9 +1124,11 @@
       <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="103.5" customHeight="1">
@@ -1134,18 +1136,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="https://arxiv.org/abs/1512.03385" xr:uid="{50B4CC48-34AB-4EC4-B226-E1D35C8A3CBC}"/>
     <hyperlink ref="E3" r:id="rId2" display="https://www.nature.com/articles/323533a0 " xr:uid="{4D7A3F53-7780-4FD5-97B8-E16EF3F98ABC}"/>
-    <hyperlink ref="E6" r:id="rId3" display="https://arxiv.org/abs/2111.06377" xr:uid="{B4E11BD0-80FC-4FEE-8E10-5B04E278BE8D}"/>
+    <hyperlink ref="E5" r:id="rId3" display="https://arxiv.org/abs/2111.06377" xr:uid="{B4E11BD0-80FC-4FEE-8E10-5B04E278BE8D}"/>
     <hyperlink ref="E8" r:id="rId4" display="https://arxiv.org/abs/1810.04805" xr:uid="{DFC5760B-D1DC-48B6-A929-EED9F697C2F3}"/>
     <hyperlink ref="E7" r:id="rId5" xr:uid="{F6DB5D4D-30CE-44E6-8DF9-775F5C5BEEA4}"/>
   </hyperlinks>
